--- a/settings/rule/data.xlsx
+++ b/settings/rule/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Data Analysing\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DataAnalyser\settings\rule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A96FAC8-877B-4BA6-A8F5-E83C9DEA4156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AC3EDA-98C4-4DE0-B9E9-30867D742086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,10 +901,10 @@
     <t>^Земля\s+\d</t>
   </si>
   <si>
-    <t>^(МВ|В|СВ|СМВ)\b</t>
-  </si>
-  <si>
     <t>\b(Срабатывание (защиты?|шкафа)|ДЗТ|ГЗТ|МТЗ|ДГЗ|ЗДЗ)\b</t>
+  </si>
+  <si>
+    <t>\b(МВ|В|СВ|СМВ)\b</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1614,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,7 +1681,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s">
         <v>84</v>
